--- a/设备清单.xlsx
+++ b/设备清单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lipeixu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lipeixu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>设备/书</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>董海鹏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当前持有者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,6 +151,14 @@
   </si>
   <si>
     <t>有设备/书的信息变动时大家自行下载下载该文件，修改后上传即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三通道直流电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡韬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,10 +213,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,9 +532,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -548,16 +554,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>32</v>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -567,10 +573,10 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -579,8 +585,8 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -589,8 +595,8 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -599,8 +605,8 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -609,8 +615,8 @@
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -619,8 +625,8 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -629,149 +635,159 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:E21"/>
-    <mergeCell ref="D2:D21"/>
+    <mergeCell ref="E1:E22"/>
+    <mergeCell ref="D2:D22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
